--- a/src/storage/app/excel-exporter/templates/absent_student.xlsx
+++ b/src/storage/app/excel-exporter/templates/absent_student.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="from it365.gitlab.io" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="absent_student" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>MÃ ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Thời gian</t>
   </si>
@@ -37,12 +34,6 @@
     <t>Lý do</t>
   </si>
   <si>
-    <t>Trạng thái</t>
-  </si>
-  <si>
-    <t>[code]</t>
-  </si>
-  <si>
     <t>[time]</t>
   </si>
   <si>
@@ -62,9 +53,6 @@
   </si>
   <si>
     <t>[reason]</t>
-  </si>
-  <si>
-    <t>[status]</t>
   </si>
 </sst>
 </file>
@@ -352,12 +340,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="5" width="13.44"/>
-    <col customWidth="1" min="6" max="6" width="27.67"/>
-    <col customWidth="1" min="7" max="7" width="25.78"/>
-    <col customWidth="1" min="8" max="8" width="22.44"/>
-    <col customWidth="1" min="9" max="9" width="13.44"/>
-    <col customWidth="1" min="10" max="26" width="10.56"/>
+    <col customWidth="1" min="1" max="4" width="13.44"/>
+    <col customWidth="1" min="5" max="5" width="27.67"/>
+    <col customWidth="1" min="6" max="6" width="25.78"/>
+    <col customWidth="1" min="7" max="7" width="22.44"/>
+    <col customWidth="1" min="8" max="24" width="10.56"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -382,12 +369,8 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -403,36 +386,28 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1"/>
